--- a/widget_rev2.xlsx
+++ b/widget_rev2.xlsx
@@ -8,19 +8,20 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\1618s\Desktop\git\ttk_instant_maker\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2D0A25B4-47EC-46F4-87D9-A8B82AD31485}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{54624859-E371-4B2B-8302-46352CA72D77}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-28920" yWindow="-1965" windowWidth="29040" windowHeight="15720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="widget" sheetId="1" r:id="rId1"/>
+    <sheet name="Sheet1" sheetId="2" r:id="rId2"/>
   </sheets>
   <calcPr calcId="0"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="90" uniqueCount="49">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="92" uniqueCount="51">
   <si>
     <t>main_frame</t>
   </si>
@@ -182,6 +183,14 @@
   </si>
   <si>
     <t>master</t>
+    <phoneticPr fontId="18"/>
+  </si>
+  <si>
+    <t>red</t>
+    <phoneticPr fontId="18"/>
+  </si>
+  <si>
+    <t>c</t>
     <phoneticPr fontId="18"/>
   </si>
 </sst>
@@ -359,7 +368,7 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="35">
+  <fills count="37">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -548,6 +557,18 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="9" tint="0.79998168889431442"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.79998168889431442"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.79998168889431442"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -811,7 +832,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="4">
+  <cellXfs count="6">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -822,6 +843,12 @@
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="19" fillId="33" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="35" borderId="10" xfId="0" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="36" borderId="10" xfId="0" applyFill="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
   </cellXfs>
@@ -1179,25 +1206,19 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:K15"/>
+  <dimension ref="A1:C15"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A4" sqref="A4:XFD4"/>
+      <selection activeCell="C11" sqref="C11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18.75" x14ac:dyDescent="0.4"/>
   <cols>
     <col min="1" max="2" width="11.75" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="17.375" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="17.25" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="11.75" bestFit="1" customWidth="1"/>
-    <col min="6" max="7" width="19.375" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="18.875" bestFit="1" customWidth="1"/>
-    <col min="9" max="10" width="27.25" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="21.375" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:11" x14ac:dyDescent="0.4">
+    <row r="1" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A1" s="1"/>
       <c r="B1" s="3" t="s">
         <v>0</v>
@@ -1205,33 +1226,9 @@
       <c r="C1" s="3" t="s">
         <v>1</v>
       </c>
-      <c r="D1" s="3" t="s">
-        <v>2</v>
-      </c>
-      <c r="E1" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="F1" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="G1" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="H1" s="3" t="s">
-        <v>6</v>
-      </c>
-      <c r="I1" s="3" t="s">
-        <v>33</v>
-      </c>
-      <c r="J1" s="3" t="s">
-        <v>38</v>
-      </c>
-      <c r="K1" s="3" t="s">
-        <v>43</v>
-      </c>
-    </row>
-    <row r="2" spans="1:11" x14ac:dyDescent="0.4">
-      <c r="A2" s="2" t="s">
+    </row>
+    <row r="2" spans="1:3" x14ac:dyDescent="0.4">
+      <c r="A2" s="4" t="s">
         <v>7</v>
       </c>
       <c r="B2" s="1" t="s">
@@ -1240,39 +1237,223 @@
       <c r="C2" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="D2" s="1" t="s">
-        <v>10</v>
-      </c>
-      <c r="E2" s="1" t="s">
-        <v>11</v>
-      </c>
-      <c r="F2" s="1" t="s">
-        <v>12</v>
-      </c>
-      <c r="G2" s="1" t="s">
-        <v>9</v>
-      </c>
-      <c r="H2" s="1" t="s">
-        <v>9</v>
-      </c>
-      <c r="I2" s="1" t="s">
-        <v>34</v>
-      </c>
-      <c r="J2" s="1" t="s">
-        <v>36</v>
-      </c>
-      <c r="K2" s="1" t="s">
-        <v>44</v>
-      </c>
-    </row>
-    <row r="3" spans="1:11" x14ac:dyDescent="0.4">
+    </row>
+    <row r="3" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A3" s="2" t="s">
         <v>48</v>
       </c>
-      <c r="B3" s="1"/>
+      <c r="B3" s="1" t="s">
+        <v>48</v>
+      </c>
       <c r="C3" s="1" t="s">
         <v>0</v>
       </c>
+    </row>
+    <row r="4" spans="1:3" x14ac:dyDescent="0.4">
+      <c r="A4" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="B4" s="1">
+        <v>0</v>
+      </c>
+      <c r="C4" s="1">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="5" spans="1:3" x14ac:dyDescent="0.4">
+      <c r="A5" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="B5" s="1">
+        <v>0</v>
+      </c>
+      <c r="C5" s="1">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="6" spans="1:3" x14ac:dyDescent="0.4">
+      <c r="A6" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="B6" s="1">
+        <v>1400</v>
+      </c>
+      <c r="C6" s="1">
+        <v>300</v>
+      </c>
+    </row>
+    <row r="7" spans="1:3" x14ac:dyDescent="0.4">
+      <c r="A7" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="B7" s="1">
+        <v>800</v>
+      </c>
+      <c r="C7" s="1">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="8" spans="1:3" x14ac:dyDescent="0.4">
+      <c r="A8" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="B8" s="1"/>
+      <c r="C8" s="1" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="9" spans="1:3" x14ac:dyDescent="0.4">
+      <c r="A9" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="B9" s="1"/>
+      <c r="C9" s="1">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="10" spans="1:3" x14ac:dyDescent="0.4">
+      <c r="A10" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="B10" s="1"/>
+      <c r="C10" s="1" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="11" spans="1:3" x14ac:dyDescent="0.4">
+      <c r="A11" s="2" t="s">
+        <v>23</v>
+      </c>
+      <c r="B11" s="1"/>
+      <c r="C11" s="1" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="12" spans="1:3" x14ac:dyDescent="0.4">
+      <c r="A12" s="2" t="s">
+        <v>26</v>
+      </c>
+      <c r="B12" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="C12" s="1" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="13" spans="1:3" x14ac:dyDescent="0.4">
+      <c r="A13" s="2" t="s">
+        <v>28</v>
+      </c>
+      <c r="B13" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="C13" s="1" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="14" spans="1:3" x14ac:dyDescent="0.4">
+      <c r="A14" s="5" t="s">
+        <v>40</v>
+      </c>
+      <c r="B14" s="1"/>
+      <c r="C14" s="1" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="15" spans="1:3" x14ac:dyDescent="0.4">
+      <c r="A15" s="5" t="s">
+        <v>35</v>
+      </c>
+      <c r="B15" s="1"/>
+      <c r="C15" s="1"/>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="18"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{DDC137D4-D074-4A1E-833B-A54C33769209}">
+  <dimension ref="A1:H15"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="D8" sqref="D8"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="18.75" x14ac:dyDescent="0.4"/>
+  <cols>
+    <col min="1" max="1" width="17.25" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="11.75" bestFit="1" customWidth="1"/>
+    <col min="3" max="4" width="19.375" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="18.875" bestFit="1" customWidth="1"/>
+    <col min="6" max="7" width="27.25" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="21.375" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:8" x14ac:dyDescent="0.4">
+      <c r="A1" s="3" t="s">
+        <v>2</v>
+      </c>
+      <c r="B1" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="C1" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="D1" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="E1" s="3" t="s">
+        <v>6</v>
+      </c>
+      <c r="F1" s="3" t="s">
+        <v>33</v>
+      </c>
+      <c r="G1" s="3" t="s">
+        <v>38</v>
+      </c>
+      <c r="H1" s="3" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="2" spans="1:8" x14ac:dyDescent="0.4">
+      <c r="A2" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="B2" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="C2" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="D2" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="E2" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="F2" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="G2" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="H2" s="1" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="3" spans="1:8" x14ac:dyDescent="0.4">
+      <c r="A3" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B3" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="C3" s="1" t="s">
+        <v>0</v>
+      </c>
       <c r="D3" s="1" t="s">
         <v>0</v>
       </c>
@@ -1283,394 +1464,292 @@
         <v>0</v>
       </c>
       <c r="G3" s="1" t="s">
+        <v>37</v>
+      </c>
+      <c r="H3" s="1" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="4" spans="1:8" x14ac:dyDescent="0.4">
+      <c r="A4" s="1">
         <v>0</v>
       </c>
-      <c r="H3" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="I3" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="J3" s="1" t="s">
-        <v>37</v>
-      </c>
-      <c r="K3" s="1" t="s">
-        <v>37</v>
-      </c>
-    </row>
-    <row r="4" spans="1:11" x14ac:dyDescent="0.4">
-      <c r="A4" s="2" t="s">
-        <v>40</v>
-      </c>
-      <c r="B4" s="1"/>
-      <c r="C4" s="1"/>
-      <c r="D4" s="1"/>
-      <c r="E4" s="1"/>
-      <c r="F4" s="1"/>
-      <c r="G4" s="1"/>
-      <c r="H4" s="1"/>
-      <c r="I4" s="1"/>
-      <c r="J4" s="1" t="s">
-        <v>41</v>
-      </c>
-      <c r="K4" s="1" t="s">
-        <v>43</v>
-      </c>
-    </row>
-    <row r="5" spans="1:11" x14ac:dyDescent="0.4">
-      <c r="A5" s="2" t="s">
-        <v>13</v>
+      <c r="B4" s="1">
+        <v>350</v>
+      </c>
+      <c r="C4" s="1">
+        <v>350</v>
+      </c>
+      <c r="D4" s="1">
+        <v>350</v>
+      </c>
+      <c r="E4" s="1">
+        <v>600</v>
+      </c>
+      <c r="F4" s="1">
+        <v>600</v>
+      </c>
+      <c r="G4" s="1">
+        <v>400</v>
+      </c>
+      <c r="H4" s="1">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="5" spans="1:8" x14ac:dyDescent="0.4">
+      <c r="A5" s="1">
+        <v>50</v>
       </c>
       <c r="B5" s="1">
         <v>0</v>
       </c>
       <c r="C5" s="1">
-        <v>0</v>
+        <v>200</v>
       </c>
       <c r="D5" s="1">
-        <v>0</v>
+        <v>750</v>
       </c>
       <c r="E5" s="1">
-        <v>350</v>
+        <v>750</v>
       </c>
       <c r="F5" s="1">
-        <v>350</v>
+        <v>750</v>
       </c>
       <c r="G5" s="1">
-        <v>350</v>
+        <v>300</v>
       </c>
       <c r="H5" s="1">
-        <v>600</v>
-      </c>
-      <c r="I5" s="1">
-        <v>600</v>
-      </c>
-      <c r="J5" s="1">
-        <v>400</v>
-      </c>
-      <c r="K5" s="1">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="6" spans="1:11" x14ac:dyDescent="0.4">
-      <c r="A6" s="2" t="s">
-        <v>14</v>
+        <v>150</v>
+      </c>
+    </row>
+    <row r="6" spans="1:8" x14ac:dyDescent="0.4">
+      <c r="A6" s="1">
+        <v>300</v>
       </c>
       <c r="B6" s="1">
-        <v>0</v>
+        <v>300</v>
       </c>
       <c r="C6" s="1">
-        <v>0</v>
+        <v>800</v>
       </c>
       <c r="D6" s="1">
-        <v>50</v>
+        <v>200</v>
       </c>
       <c r="E6" s="1">
-        <v>0</v>
+        <v>200</v>
       </c>
       <c r="F6" s="1">
         <v>200</v>
       </c>
       <c r="G6" s="1">
-        <v>750</v>
+        <v>400</v>
       </c>
       <c r="H6" s="1">
-        <v>750</v>
-      </c>
-      <c r="I6" s="1">
-        <v>750</v>
-      </c>
-      <c r="J6" s="1">
         <v>300</v>
       </c>
-      <c r="K6" s="1">
-        <v>150</v>
-      </c>
-    </row>
-    <row r="7" spans="1:11" x14ac:dyDescent="0.4">
-      <c r="A7" s="2" t="s">
-        <v>15</v>
+    </row>
+    <row r="7" spans="1:8" x14ac:dyDescent="0.4">
+      <c r="A7" s="1">
+        <v>50</v>
       </c>
       <c r="B7" s="1">
-        <v>1400</v>
+        <v>50</v>
       </c>
       <c r="C7" s="1">
-        <v>300</v>
+        <v>400</v>
       </c>
       <c r="D7" s="1">
-        <v>300</v>
+        <v>50</v>
       </c>
       <c r="E7" s="1">
-        <v>300</v>
+        <v>50</v>
       </c>
       <c r="F7" s="1">
-        <v>800</v>
+        <v>50</v>
       </c>
       <c r="G7" s="1">
-        <v>200</v>
+        <v>400</v>
       </c>
       <c r="H7" s="1">
-        <v>200</v>
-      </c>
-      <c r="I7" s="1">
-        <v>200</v>
-      </c>
-      <c r="J7" s="1">
-        <v>400</v>
-      </c>
-      <c r="K7" s="1">
-        <v>300</v>
-      </c>
-    </row>
-    <row r="8" spans="1:11" x14ac:dyDescent="0.4">
-      <c r="A8" s="2" t="s">
-        <v>16</v>
-      </c>
-      <c r="B8" s="1">
-        <v>800</v>
-      </c>
-      <c r="C8" s="1">
         <v>50</v>
       </c>
-      <c r="D8" s="1">
-        <v>50</v>
-      </c>
-      <c r="E8" s="1">
-        <v>50</v>
-      </c>
-      <c r="F8" s="1">
-        <v>400</v>
-      </c>
-      <c r="G8" s="1">
-        <v>50</v>
-      </c>
-      <c r="H8" s="1">
-        <v>50</v>
-      </c>
-      <c r="I8" s="1">
-        <v>50</v>
-      </c>
-      <c r="J8" s="1">
-        <v>400</v>
-      </c>
-      <c r="K8" s="1">
-        <v>50</v>
-      </c>
-    </row>
-    <row r="9" spans="1:11" x14ac:dyDescent="0.4">
-      <c r="A9" s="2" t="s">
-        <v>17</v>
-      </c>
-      <c r="B9" s="1"/>
-      <c r="C9" s="1" t="s">
+    </row>
+    <row r="8" spans="1:8" x14ac:dyDescent="0.4">
+      <c r="A8" s="1" t="s">
         <v>18</v>
       </c>
-      <c r="D9" s="1" t="s">
+      <c r="B8" s="1" t="s">
         <v>18</v>
       </c>
-      <c r="E9" s="1" t="s">
+      <c r="C8" s="1"/>
+      <c r="D8" s="1" t="s">
         <v>18</v>
       </c>
-      <c r="F9" s="1"/>
-      <c r="G9" s="1" t="s">
+      <c r="E8" s="1" t="s">
         <v>18</v>
       </c>
-      <c r="H9" s="1" t="s">
+      <c r="F8" s="1" t="s">
         <v>18</v>
       </c>
-      <c r="I9" s="1" t="s">
+      <c r="G8" s="1" t="s">
         <v>18</v>
       </c>
-      <c r="J9" s="1" t="s">
+      <c r="H8" s="1" t="s">
         <v>18</v>
       </c>
-      <c r="K9" s="1" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="10" spans="1:11" x14ac:dyDescent="0.4">
-      <c r="A10" s="2" t="s">
-        <v>19</v>
-      </c>
-      <c r="B10" s="1"/>
-      <c r="C10" s="1">
+    </row>
+    <row r="9" spans="1:8" x14ac:dyDescent="0.4">
+      <c r="A9" s="1">
         <v>20</v>
       </c>
-      <c r="D10" s="1">
+      <c r="B9" s="1">
         <v>20</v>
       </c>
-      <c r="E10" s="1">
+      <c r="C9" s="1"/>
+      <c r="D9" s="1">
         <v>20</v>
       </c>
-      <c r="F10" s="1"/>
-      <c r="G10" s="1">
+      <c r="E9" s="1">
         <v>20</v>
       </c>
-      <c r="H10" s="1">
+      <c r="F9" s="1">
         <v>20</v>
       </c>
-      <c r="I10" s="1">
+      <c r="G9" s="1">
         <v>20</v>
       </c>
-      <c r="J10" s="1">
+      <c r="H9" s="1">
         <v>20</v>
       </c>
-      <c r="K10" s="1">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="11" spans="1:11" x14ac:dyDescent="0.4">
-      <c r="A11" s="2" t="s">
-        <v>20</v>
-      </c>
-      <c r="B11" s="1"/>
-      <c r="C11" s="1" t="s">
+    </row>
+    <row r="10" spans="1:8" x14ac:dyDescent="0.4">
+      <c r="A10" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="B10" s="1" t="s">
         <v>21</v>
       </c>
+      <c r="C10" s="1"/>
+      <c r="D10" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="E10" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="F10" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="G10" s="1" t="s">
+        <v>42</v>
+      </c>
+      <c r="H10" s="1" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="11" spans="1:8" x14ac:dyDescent="0.4">
+      <c r="A11" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="B11" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="C11" s="1"/>
       <c r="D11" s="1" t="s">
-        <v>22</v>
+        <v>25</v>
       </c>
       <c r="E11" s="1" t="s">
-        <v>21</v>
-      </c>
-      <c r="F11" s="1"/>
+        <v>25</v>
+      </c>
+      <c r="F11" s="1" t="s">
+        <v>25</v>
+      </c>
       <c r="G11" s="1" t="s">
-        <v>21</v>
+        <v>25</v>
       </c>
       <c r="H11" s="1" t="s">
-        <v>21</v>
-      </c>
-      <c r="I11" s="1" t="s">
-        <v>21</v>
-      </c>
-      <c r="J11" s="1" t="s">
-        <v>42</v>
-      </c>
-      <c r="K11" s="1" t="s">
-        <v>47</v>
-      </c>
-    </row>
-    <row r="12" spans="1:11" x14ac:dyDescent="0.4">
-      <c r="A12" s="2" t="s">
-        <v>23</v>
-      </c>
-      <c r="B12" s="1"/>
-      <c r="C12" s="1" t="s">
-        <v>24</v>
-      </c>
+        <v>25</v>
+      </c>
+    </row>
+    <row r="12" spans="1:8" x14ac:dyDescent="0.4">
+      <c r="A12" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="B12" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="C12" s="1"/>
       <c r="D12" s="1" t="s">
-        <v>25</v>
+        <v>27</v>
       </c>
       <c r="E12" s="1" t="s">
-        <v>25</v>
-      </c>
-      <c r="F12" s="1"/>
+        <v>27</v>
+      </c>
+      <c r="F12" s="1" t="s">
+        <v>27</v>
+      </c>
       <c r="G12" s="1" t="s">
-        <v>25</v>
+        <v>27</v>
       </c>
       <c r="H12" s="1" t="s">
-        <v>25</v>
-      </c>
-      <c r="I12" s="1" t="s">
-        <v>25</v>
-      </c>
-      <c r="J12" s="1" t="s">
-        <v>25</v>
-      </c>
-      <c r="K12" s="1" t="s">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="13" spans="1:11" x14ac:dyDescent="0.4">
-      <c r="A13" s="2" t="s">
-        <v>26</v>
+        <v>45</v>
+      </c>
+    </row>
+    <row r="13" spans="1:8" x14ac:dyDescent="0.4">
+      <c r="A13" s="1" t="s">
+        <v>31</v>
       </c>
       <c r="B13" s="1" t="s">
-        <v>27</v>
+        <v>29</v>
       </c>
       <c r="C13" s="1" t="s">
-        <v>27</v>
+        <v>32</v>
       </c>
       <c r="D13" s="1" t="s">
-        <v>27</v>
+        <v>30</v>
       </c>
       <c r="E13" s="1" t="s">
-        <v>27</v>
-      </c>
-      <c r="F13" s="1"/>
+        <v>30</v>
+      </c>
+      <c r="F13" s="1" t="s">
+        <v>29</v>
+      </c>
       <c r="G13" s="1" t="s">
-        <v>27</v>
+        <v>29</v>
       </c>
       <c r="H13" s="1" t="s">
-        <v>27</v>
-      </c>
-      <c r="I13" s="1" t="s">
-        <v>27</v>
-      </c>
-      <c r="J13" s="1" t="s">
-        <v>27</v>
-      </c>
-      <c r="K13" s="1" t="s">
-        <v>45</v>
-      </c>
-    </row>
-    <row r="14" spans="1:11" x14ac:dyDescent="0.4">
-      <c r="A14" s="2" t="s">
-        <v>28</v>
-      </c>
-      <c r="B14" s="1" t="s">
-        <v>29</v>
-      </c>
-      <c r="C14" s="1" t="s">
-        <v>30</v>
-      </c>
-      <c r="D14" s="1" t="s">
-        <v>31</v>
-      </c>
-      <c r="E14" s="1" t="s">
-        <v>29</v>
-      </c>
-      <c r="F14" s="1" t="s">
-        <v>32</v>
-      </c>
+        <v>46</v>
+      </c>
+    </row>
+    <row r="14" spans="1:8" x14ac:dyDescent="0.4">
+      <c r="A14" s="1"/>
+      <c r="B14" s="1"/>
+      <c r="C14" s="1"/>
+      <c r="D14" s="1"/>
+      <c r="E14" s="1"/>
+      <c r="F14" s="1"/>
       <c r="G14" s="1" t="s">
-        <v>30</v>
+        <v>41</v>
       </c>
       <c r="H14" s="1" t="s">
-        <v>30</v>
-      </c>
-      <c r="I14" s="1" t="s">
-        <v>29</v>
-      </c>
-      <c r="J14" s="1" t="s">
-        <v>29</v>
-      </c>
-      <c r="K14" s="1" t="s">
-        <v>46</v>
-      </c>
-    </row>
-    <row r="15" spans="1:11" x14ac:dyDescent="0.4">
-      <c r="A15" s="2" t="s">
-        <v>35</v>
-      </c>
+        <v>43</v>
+      </c>
+    </row>
+    <row r="15" spans="1:8" x14ac:dyDescent="0.4">
+      <c r="A15" s="1"/>
       <c r="B15" s="1"/>
       <c r="C15" s="1"/>
       <c r="D15" s="1"/>
       <c r="E15" s="1"/>
       <c r="F15" s="1"/>
-      <c r="G15" s="1"/>
-      <c r="H15" s="1"/>
-      <c r="I15" s="1"/>
-      <c r="J15" s="1" t="s">
+      <c r="G15" s="1" t="s">
         <v>39</v>
       </c>
-      <c r="K15" s="1" t="s">
+      <c r="H15" s="1" t="s">
         <v>39</v>
       </c>
     </row>
   </sheetData>
   <phoneticPr fontId="18"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>
--- a/widget_rev2.xlsx
+++ b/widget_rev2.xlsx
@@ -1,34 +1,32 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26529"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26626"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\1618s\Desktop\git\ttk_instant_maker\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/92cfbb90abbe8015/code/03_git/ttk_instant_maker/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{54624859-E371-4B2B-8302-46352CA72D77}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="94" documentId="13_ncr:1_{31F62CDF-D643-4E42-8CCE-9C484B1843E6}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{E8B40517-57BF-44CE-ACEF-6E9957B2CA17}"/>
   <bookViews>
-    <workbookView xWindow="-28920" yWindow="-1965" windowWidth="29040" windowHeight="15720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-28920" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="widget" sheetId="1" r:id="rId1"/>
     <sheet name="Sheet1" sheetId="2" r:id="rId2"/>
+    <sheet name="Sheet2" sheetId="3" r:id="rId3"/>
   </sheets>
   <calcPr calcId="0"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="92" uniqueCount="51">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="203" uniqueCount="97">
   <si>
     <t>main_frame</t>
   </si>
   <si>
-    <t>ref_button</t>
-  </si>
-  <si>
     <t>folder_path_entry</t>
   </si>
   <si>
@@ -186,12 +184,189 @@
     <phoneticPr fontId="18"/>
   </si>
   <si>
-    <t>red</t>
-    <phoneticPr fontId="18"/>
-  </si>
-  <si>
     <t>c</t>
     <phoneticPr fontId="18"/>
+  </si>
+  <si>
+    <t>ttk.Label</t>
+    <phoneticPr fontId="18"/>
+  </si>
+  <si>
+    <t>test_label</t>
+    <phoneticPr fontId="18"/>
+  </si>
+  <si>
+    <t>test_button</t>
+    <phoneticPr fontId="18"/>
+  </si>
+  <si>
+    <t>hand2</t>
+    <phoneticPr fontId="18"/>
+  </si>
+  <si>
+    <t>test_frame</t>
+    <phoneticPr fontId="18"/>
+  </si>
+  <si>
+    <t>flat</t>
+    <phoneticPr fontId="18"/>
+  </si>
+  <si>
+    <t>raised</t>
+    <phoneticPr fontId="18"/>
+  </si>
+  <si>
+    <t>sunken</t>
+    <phoneticPr fontId="18"/>
+  </si>
+  <si>
+    <t>ridge</t>
+    <phoneticPr fontId="18"/>
+  </si>
+  <si>
+    <t>solid</t>
+    <phoneticPr fontId="18"/>
+  </si>
+  <si>
+    <t>ttk.Entry</t>
+    <phoneticPr fontId="18"/>
+  </si>
+  <si>
+    <t>test_entry</t>
+    <phoneticPr fontId="18"/>
+  </si>
+  <si>
+    <t>ibeam</t>
+    <phoneticPr fontId="18"/>
+  </si>
+  <si>
+    <t>state</t>
+    <phoneticPr fontId="18"/>
+  </si>
+  <si>
+    <t>test_checkbutton</t>
+  </si>
+  <si>
+    <t>test_checkbutton</t>
+    <phoneticPr fontId="18"/>
+  </si>
+  <si>
+    <t>Cyan</t>
+    <phoneticPr fontId="18"/>
+  </si>
+  <si>
+    <t>active</t>
+    <phoneticPr fontId="18"/>
+  </si>
+  <si>
+    <t>test_frame</t>
+  </si>
+  <si>
+    <t>test_button</t>
+  </si>
+  <si>
+    <t>test_entry</t>
+  </si>
+  <si>
+    <t>variable</t>
+    <phoneticPr fontId="18"/>
+  </si>
+  <si>
+    <t>test_radiobutton_1</t>
+  </si>
+  <si>
+    <t>test_radiobutton_1</t>
+    <phoneticPr fontId="18"/>
+  </si>
+  <si>
+    <t>ttk.Radiobutton</t>
+    <phoneticPr fontId="18"/>
+  </si>
+  <si>
+    <t>test_radiobutton_2</t>
+  </si>
+  <si>
+    <t>test_radiobutton_3</t>
+  </si>
+  <si>
+    <t>value</t>
+    <phoneticPr fontId="18"/>
+  </si>
+  <si>
+    <t>variable_test_radiobutton</t>
+    <phoneticPr fontId="18"/>
+  </si>
+  <si>
+    <t>Arial</t>
+    <phoneticPr fontId="18"/>
+  </si>
+  <si>
+    <t>test_radiobutton_3</t>
+    <phoneticPr fontId="18"/>
+  </si>
+  <si>
+    <t>selectmode</t>
+    <phoneticPr fontId="18"/>
+  </si>
+  <si>
+    <t>flat</t>
+  </si>
+  <si>
+    <t>tk.Listbox</t>
+    <phoneticPr fontId="18"/>
+  </si>
+  <si>
+    <t>test_listbox</t>
+    <phoneticPr fontId="18"/>
+  </si>
+  <si>
+    <t>black</t>
+    <phoneticPr fontId="18"/>
+  </si>
+  <si>
+    <t>test_scale</t>
+    <phoneticPr fontId="18"/>
+  </si>
+  <si>
+    <t>ttk.Scale</t>
+    <phoneticPr fontId="18"/>
+  </si>
+  <si>
+    <t>orient</t>
+    <phoneticPr fontId="18"/>
+  </si>
+  <si>
+    <t>horizontal</t>
+  </si>
+  <si>
+    <t>from_</t>
+    <phoneticPr fontId="18"/>
+  </si>
+  <si>
+    <t>to</t>
+    <phoneticPr fontId="18"/>
+  </si>
+  <si>
+    <t>vertical</t>
+  </si>
+  <si>
+    <t>ttk.Combobox</t>
+    <phoneticPr fontId="18"/>
+  </si>
+  <si>
+    <t>test_combobox</t>
+    <phoneticPr fontId="18"/>
+  </si>
+  <si>
+    <t>test_treeview</t>
+    <phoneticPr fontId="18"/>
+  </si>
+  <si>
+    <t>ttk.Treeview</t>
+    <phoneticPr fontId="18"/>
+  </si>
+  <si>
+    <t>browse</t>
   </si>
 </sst>
 </file>
@@ -368,7 +543,7 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="37">
+  <fills count="38">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -569,6 +744,12 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="7" tint="0.79998168889431442"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.79998168889431442"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -832,7 +1013,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="6">
+  <cellXfs count="7">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -849,52 +1030,55 @@
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="36" borderId="10" xfId="0" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="37" borderId="10" xfId="0" applyFill="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="42">
-    <cellStyle name="20% - Accent1" xfId="19" builtinId="30" customBuiltin="1"/>
-    <cellStyle name="20% - Accent2" xfId="23" builtinId="34" customBuiltin="1"/>
-    <cellStyle name="20% - Accent3" xfId="27" builtinId="38" customBuiltin="1"/>
-    <cellStyle name="20% - Accent4" xfId="31" builtinId="42" customBuiltin="1"/>
-    <cellStyle name="20% - Accent5" xfId="35" builtinId="46" customBuiltin="1"/>
-    <cellStyle name="20% - Accent6" xfId="39" builtinId="50" customBuiltin="1"/>
-    <cellStyle name="40% - Accent1" xfId="20" builtinId="31" customBuiltin="1"/>
-    <cellStyle name="40% - Accent2" xfId="24" builtinId="35" customBuiltin="1"/>
-    <cellStyle name="40% - Accent3" xfId="28" builtinId="39" customBuiltin="1"/>
-    <cellStyle name="40% - Accent4" xfId="32" builtinId="43" customBuiltin="1"/>
-    <cellStyle name="40% - Accent5" xfId="36" builtinId="47" customBuiltin="1"/>
-    <cellStyle name="40% - Accent6" xfId="40" builtinId="51" customBuiltin="1"/>
-    <cellStyle name="60% - Accent1" xfId="21" builtinId="32" customBuiltin="1"/>
-    <cellStyle name="60% - Accent2" xfId="25" builtinId="36" customBuiltin="1"/>
-    <cellStyle name="60% - Accent3" xfId="29" builtinId="40" customBuiltin="1"/>
-    <cellStyle name="60% - Accent4" xfId="33" builtinId="44" customBuiltin="1"/>
-    <cellStyle name="60% - Accent5" xfId="37" builtinId="48" customBuiltin="1"/>
-    <cellStyle name="60% - Accent6" xfId="41" builtinId="52" customBuiltin="1"/>
-    <cellStyle name="Accent1" xfId="18" builtinId="29" customBuiltin="1"/>
-    <cellStyle name="Accent2" xfId="22" builtinId="33" customBuiltin="1"/>
-    <cellStyle name="Accent3" xfId="26" builtinId="37" customBuiltin="1"/>
-    <cellStyle name="Accent4" xfId="30" builtinId="41" customBuiltin="1"/>
-    <cellStyle name="Accent5" xfId="34" builtinId="45" customBuiltin="1"/>
-    <cellStyle name="Accent6" xfId="38" builtinId="49" customBuiltin="1"/>
-    <cellStyle name="Bad" xfId="7" builtinId="27" customBuiltin="1"/>
-    <cellStyle name="Calculation" xfId="11" builtinId="22" customBuiltin="1"/>
-    <cellStyle name="Check Cell" xfId="13" builtinId="23" customBuiltin="1"/>
-    <cellStyle name="Explanatory Text" xfId="16" builtinId="53" customBuiltin="1"/>
-    <cellStyle name="Good" xfId="6" builtinId="26" customBuiltin="1"/>
-    <cellStyle name="Heading 1" xfId="2" builtinId="16" customBuiltin="1"/>
-    <cellStyle name="Heading 2" xfId="3" builtinId="17" customBuiltin="1"/>
-    <cellStyle name="Heading 3" xfId="4" builtinId="18" customBuiltin="1"/>
-    <cellStyle name="Heading 4" xfId="5" builtinId="19" customBuiltin="1"/>
-    <cellStyle name="Input" xfId="9" builtinId="20" customBuiltin="1"/>
-    <cellStyle name="Linked Cell" xfId="12" builtinId="24" customBuiltin="1"/>
-    <cellStyle name="Neutral" xfId="8" builtinId="28" customBuiltin="1"/>
-    <cellStyle name="Normal" xfId="0" builtinId="0"/>
-    <cellStyle name="Note" xfId="15" builtinId="10" customBuiltin="1"/>
-    <cellStyle name="Output" xfId="10" builtinId="21" customBuiltin="1"/>
-    <cellStyle name="Title" xfId="1" builtinId="15" customBuiltin="1"/>
-    <cellStyle name="Total" xfId="17" builtinId="25" customBuiltin="1"/>
-    <cellStyle name="Warning Text" xfId="14" builtinId="11" customBuiltin="1"/>
+    <cellStyle name="20% - アクセント 1" xfId="19" builtinId="30" customBuiltin="1"/>
+    <cellStyle name="20% - アクセント 2" xfId="23" builtinId="34" customBuiltin="1"/>
+    <cellStyle name="20% - アクセント 3" xfId="27" builtinId="38" customBuiltin="1"/>
+    <cellStyle name="20% - アクセント 4" xfId="31" builtinId="42" customBuiltin="1"/>
+    <cellStyle name="20% - アクセント 5" xfId="35" builtinId="46" customBuiltin="1"/>
+    <cellStyle name="20% - アクセント 6" xfId="39" builtinId="50" customBuiltin="1"/>
+    <cellStyle name="40% - アクセント 1" xfId="20" builtinId="31" customBuiltin="1"/>
+    <cellStyle name="40% - アクセント 2" xfId="24" builtinId="35" customBuiltin="1"/>
+    <cellStyle name="40% - アクセント 3" xfId="28" builtinId="39" customBuiltin="1"/>
+    <cellStyle name="40% - アクセント 4" xfId="32" builtinId="43" customBuiltin="1"/>
+    <cellStyle name="40% - アクセント 5" xfId="36" builtinId="47" customBuiltin="1"/>
+    <cellStyle name="40% - アクセント 6" xfId="40" builtinId="51" customBuiltin="1"/>
+    <cellStyle name="60% - アクセント 1" xfId="21" builtinId="32" customBuiltin="1"/>
+    <cellStyle name="60% - アクセント 2" xfId="25" builtinId="36" customBuiltin="1"/>
+    <cellStyle name="60% - アクセント 3" xfId="29" builtinId="40" customBuiltin="1"/>
+    <cellStyle name="60% - アクセント 4" xfId="33" builtinId="44" customBuiltin="1"/>
+    <cellStyle name="60% - アクセント 5" xfId="37" builtinId="48" customBuiltin="1"/>
+    <cellStyle name="60% - アクセント 6" xfId="41" builtinId="52" customBuiltin="1"/>
+    <cellStyle name="アクセント 1" xfId="18" builtinId="29" customBuiltin="1"/>
+    <cellStyle name="アクセント 2" xfId="22" builtinId="33" customBuiltin="1"/>
+    <cellStyle name="アクセント 3" xfId="26" builtinId="37" customBuiltin="1"/>
+    <cellStyle name="アクセント 4" xfId="30" builtinId="41" customBuiltin="1"/>
+    <cellStyle name="アクセント 5" xfId="34" builtinId="45" customBuiltin="1"/>
+    <cellStyle name="アクセント 6" xfId="38" builtinId="49" customBuiltin="1"/>
+    <cellStyle name="タイトル" xfId="1" builtinId="15" customBuiltin="1"/>
+    <cellStyle name="チェック セル" xfId="13" builtinId="23" customBuiltin="1"/>
+    <cellStyle name="どちらでもない" xfId="8" builtinId="28" customBuiltin="1"/>
+    <cellStyle name="メモ" xfId="15" builtinId="10" customBuiltin="1"/>
+    <cellStyle name="リンク セル" xfId="12" builtinId="24" customBuiltin="1"/>
+    <cellStyle name="悪い" xfId="7" builtinId="27" customBuiltin="1"/>
+    <cellStyle name="計算" xfId="11" builtinId="22" customBuiltin="1"/>
+    <cellStyle name="警告文" xfId="14" builtinId="11" customBuiltin="1"/>
+    <cellStyle name="見出し 1" xfId="2" builtinId="16" customBuiltin="1"/>
+    <cellStyle name="見出し 2" xfId="3" builtinId="17" customBuiltin="1"/>
+    <cellStyle name="見出し 3" xfId="4" builtinId="18" customBuiltin="1"/>
+    <cellStyle name="見出し 4" xfId="5" builtinId="19" customBuiltin="1"/>
+    <cellStyle name="集計" xfId="17" builtinId="25" customBuiltin="1"/>
+    <cellStyle name="出力" xfId="10" builtinId="21" customBuiltin="1"/>
+    <cellStyle name="説明文" xfId="16" builtinId="53" customBuiltin="1"/>
+    <cellStyle name="入力" xfId="9" builtinId="20" customBuiltin="1"/>
+    <cellStyle name="標準" xfId="0" builtinId="0"/>
+    <cellStyle name="良い" xfId="6" builtinId="26" customBuiltin="1"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
@@ -910,7 +1094,7 @@
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office テーマ">
   <a:themeElements>
     <a:clrScheme name="Office">
       <a:dk1>
@@ -1206,52 +1390,148 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:C15"/>
+  <dimension ref="A1:M22"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C11" sqref="C11"/>
+      <pane xSplit="1" ySplit="2" topLeftCell="I3" activePane="bottomRight" state="frozen"/>
+      <selection pane="topRight" activeCell="B1" sqref="B1"/>
+      <selection pane="bottomLeft" activeCell="A3" sqref="A3"/>
+      <selection pane="bottomRight" activeCell="J18" sqref="J18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18.75" x14ac:dyDescent="0.4"/>
   <cols>
     <col min="1" max="2" width="11.75" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="17.375" bestFit="1" customWidth="1"/>
+    <col min="3" max="6" width="17.375" bestFit="1" customWidth="1"/>
+    <col min="7" max="9" width="24.75" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="17.625" customWidth="1"/>
+    <col min="11" max="13" width="24.75" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" x14ac:dyDescent="0.4">
+    <row r="1" spans="1:13" x14ac:dyDescent="0.4">
       <c r="A1" s="1"/>
       <c r="B1" s="3" t="s">
-        <v>0</v>
+        <v>53</v>
       </c>
       <c r="C1" s="3" t="s">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="2" spans="1:3" x14ac:dyDescent="0.4">
+        <v>50</v>
+      </c>
+      <c r="D1" s="3" t="s">
+        <v>51</v>
+      </c>
+      <c r="E1" s="3" t="s">
+        <v>60</v>
+      </c>
+      <c r="F1" s="3" t="s">
+        <v>64</v>
+      </c>
+      <c r="G1" s="3" t="s">
+        <v>72</v>
+      </c>
+      <c r="H1" s="3" t="s">
+        <v>74</v>
+      </c>
+      <c r="I1" s="3" t="s">
+        <v>75</v>
+      </c>
+      <c r="J1" s="3" t="s">
+        <v>83</v>
+      </c>
+      <c r="K1" s="3" t="s">
+        <v>85</v>
+      </c>
+      <c r="L1" s="3" t="s">
+        <v>93</v>
+      </c>
+      <c r="M1" s="3" t="s">
+        <v>94</v>
+      </c>
+    </row>
+    <row r="2" spans="1:13" x14ac:dyDescent="0.4">
       <c r="A2" s="4" t="s">
+        <v>6</v>
+      </c>
+      <c r="B2" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="B2" s="1" t="s">
+      <c r="C2" s="1" t="s">
+        <v>49</v>
+      </c>
+      <c r="D2" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="C2" s="1" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="3" spans="1:3" x14ac:dyDescent="0.4">
+      <c r="E2" s="1" t="s">
+        <v>59</v>
+      </c>
+      <c r="F2" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="G2" s="1" t="s">
+        <v>73</v>
+      </c>
+      <c r="H2" s="1" t="s">
+        <v>73</v>
+      </c>
+      <c r="I2" s="1" t="s">
+        <v>73</v>
+      </c>
+      <c r="J2" s="1" t="s">
+        <v>82</v>
+      </c>
+      <c r="K2" s="1" t="s">
+        <v>86</v>
+      </c>
+      <c r="L2" s="1" t="s">
+        <v>92</v>
+      </c>
+      <c r="M2" s="1" t="s">
+        <v>95</v>
+      </c>
+    </row>
+    <row r="3" spans="1:13" x14ac:dyDescent="0.4">
       <c r="A3" s="2" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="B3" s="1" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="C3" s="1" t="s">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="4" spans="1:3" x14ac:dyDescent="0.4">
+        <v>53</v>
+      </c>
+      <c r="D3" s="1" t="s">
+        <v>53</v>
+      </c>
+      <c r="E3" s="1" t="s">
+        <v>53</v>
+      </c>
+      <c r="F3" s="1" t="s">
+        <v>53</v>
+      </c>
+      <c r="G3" s="1" t="s">
+        <v>53</v>
+      </c>
+      <c r="H3" s="1" t="s">
+        <v>53</v>
+      </c>
+      <c r="I3" s="1" t="s">
+        <v>53</v>
+      </c>
+      <c r="J3" s="1" t="s">
+        <v>53</v>
+      </c>
+      <c r="K3" s="1" t="s">
+        <v>53</v>
+      </c>
+      <c r="L3" s="1" t="s">
+        <v>53</v>
+      </c>
+      <c r="M3" s="1" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="4" spans="1:13" x14ac:dyDescent="0.4">
       <c r="A4" s="2" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="B4" s="1">
         <v>0</v>
@@ -1259,116 +1539,618 @@
       <c r="C4" s="1">
         <v>50</v>
       </c>
-    </row>
-    <row r="5" spans="1:3" x14ac:dyDescent="0.4">
+      <c r="D4" s="1">
+        <v>50</v>
+      </c>
+      <c r="E4" s="1">
+        <v>50</v>
+      </c>
+      <c r="F4" s="1">
+        <v>50</v>
+      </c>
+      <c r="G4" s="1">
+        <v>50</v>
+      </c>
+      <c r="H4" s="1">
+        <v>50</v>
+      </c>
+      <c r="I4" s="1">
+        <v>50</v>
+      </c>
+      <c r="J4" s="1">
+        <v>50</v>
+      </c>
+      <c r="K4" s="1">
+        <v>350</v>
+      </c>
+      <c r="L4" s="1">
+        <v>350</v>
+      </c>
+      <c r="M4" s="1">
+        <v>350</v>
+      </c>
+    </row>
+    <row r="5" spans="1:13" x14ac:dyDescent="0.4">
       <c r="A5" s="2" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="B5" s="1">
         <v>0</v>
       </c>
       <c r="C5" s="1">
+        <v>50</v>
+      </c>
+      <c r="D5" s="1">
         <v>100</v>
       </c>
-    </row>
-    <row r="6" spans="1:3" x14ac:dyDescent="0.4">
+      <c r="E5" s="1">
+        <v>150</v>
+      </c>
+      <c r="F5" s="1">
+        <v>200</v>
+      </c>
+      <c r="G5" s="1">
+        <v>250</v>
+      </c>
+      <c r="H5" s="1">
+        <v>280</v>
+      </c>
+      <c r="I5" s="1">
+        <v>310</v>
+      </c>
+      <c r="J5" s="1">
+        <v>400</v>
+      </c>
+      <c r="K5" s="1">
+        <v>50</v>
+      </c>
+      <c r="L5" s="1">
+        <v>150</v>
+      </c>
+      <c r="M5" s="1">
+        <v>250</v>
+      </c>
+    </row>
+    <row r="6" spans="1:13" x14ac:dyDescent="0.4">
       <c r="A6" s="2" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="B6" s="1">
         <v>1400</v>
       </c>
       <c r="C6" s="1">
-        <v>300</v>
-      </c>
-    </row>
-    <row r="7" spans="1:3" x14ac:dyDescent="0.4">
+        <v>200</v>
+      </c>
+      <c r="D6" s="1">
+        <v>200</v>
+      </c>
+      <c r="E6" s="1">
+        <v>200</v>
+      </c>
+      <c r="F6" s="1">
+        <v>200</v>
+      </c>
+      <c r="G6" s="1">
+        <v>200</v>
+      </c>
+      <c r="H6" s="1">
+        <v>200</v>
+      </c>
+      <c r="I6" s="1">
+        <v>200</v>
+      </c>
+      <c r="J6" s="1">
+        <v>200</v>
+      </c>
+      <c r="K6" s="1">
+        <v>200</v>
+      </c>
+      <c r="L6" s="1">
+        <v>200</v>
+      </c>
+      <c r="M6" s="1">
+        <v>200</v>
+      </c>
+    </row>
+    <row r="7" spans="1:13" x14ac:dyDescent="0.4">
       <c r="A7" s="2" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="B7" s="1">
         <v>800</v>
       </c>
       <c r="C7" s="1">
-        <v>50</v>
-      </c>
-    </row>
-    <row r="8" spans="1:3" x14ac:dyDescent="0.4">
+        <v>25</v>
+      </c>
+      <c r="D7" s="1">
+        <v>25</v>
+      </c>
+      <c r="E7" s="1">
+        <v>25</v>
+      </c>
+      <c r="F7" s="1">
+        <v>25</v>
+      </c>
+      <c r="G7" s="1">
+        <v>25</v>
+      </c>
+      <c r="H7" s="1">
+        <v>25</v>
+      </c>
+      <c r="I7" s="1">
+        <v>25</v>
+      </c>
+      <c r="J7" s="1">
+        <v>100</v>
+      </c>
+      <c r="K7" s="1">
+        <v>80</v>
+      </c>
+      <c r="L7" s="1">
+        <v>25</v>
+      </c>
+      <c r="M7" s="1">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="8" spans="1:13" x14ac:dyDescent="0.4">
       <c r="A8" s="2" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="B8" s="1"/>
       <c r="C8" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="D8" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="E8" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="F8" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="G8" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="H8" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="I8" s="1" t="s">
+        <v>78</v>
+      </c>
+      <c r="J8" s="1" t="s">
+        <v>78</v>
+      </c>
+      <c r="K8" s="1" t="s">
+        <v>78</v>
+      </c>
+      <c r="L8" s="1" t="s">
+        <v>78</v>
+      </c>
+      <c r="M8" s="1" t="s">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="9" spans="1:13" x14ac:dyDescent="0.4">
+      <c r="A9" s="2" t="s">
         <v>18</v>
-      </c>
-    </row>
-    <row r="9" spans="1:3" x14ac:dyDescent="0.4">
-      <c r="A9" s="2" t="s">
-        <v>19</v>
       </c>
       <c r="B9" s="1"/>
       <c r="C9" s="1">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="10" spans="1:3" x14ac:dyDescent="0.4">
+        <v>12</v>
+      </c>
+      <c r="D9" s="1">
+        <v>12</v>
+      </c>
+      <c r="E9" s="1">
+        <v>12</v>
+      </c>
+      <c r="F9" s="1">
+        <v>12</v>
+      </c>
+      <c r="G9" s="1">
+        <v>12</v>
+      </c>
+      <c r="H9" s="1">
+        <v>12</v>
+      </c>
+      <c r="I9" s="1">
+        <v>12</v>
+      </c>
+      <c r="J9" s="1">
+        <v>12</v>
+      </c>
+      <c r="K9" s="1">
+        <v>12</v>
+      </c>
+      <c r="L9" s="1">
+        <v>12</v>
+      </c>
+      <c r="M9" s="1">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="10" spans="1:13" x14ac:dyDescent="0.4">
       <c r="A10" s="2" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="B10" s="1"/>
       <c r="C10" s="1" t="s">
-        <v>50</v>
-      </c>
-    </row>
-    <row r="11" spans="1:3" x14ac:dyDescent="0.4">
+        <v>48</v>
+      </c>
+      <c r="D10" s="1" t="s">
+        <v>48</v>
+      </c>
+      <c r="E10" s="1" t="s">
+        <v>48</v>
+      </c>
+      <c r="F10" s="1" t="s">
+        <v>48</v>
+      </c>
+      <c r="G10" s="1" t="s">
+        <v>48</v>
+      </c>
+      <c r="H10" s="1" t="s">
+        <v>48</v>
+      </c>
+      <c r="I10" s="1" t="s">
+        <v>48</v>
+      </c>
+      <c r="J10" s="1" t="s">
+        <v>48</v>
+      </c>
+      <c r="K10" s="1" t="s">
+        <v>48</v>
+      </c>
+      <c r="L10" s="1" t="s">
+        <v>48</v>
+      </c>
+      <c r="M10" s="1" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="11" spans="1:13" x14ac:dyDescent="0.4">
       <c r="A11" s="2" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="B11" s="1"/>
       <c r="C11" s="1" t="s">
-        <v>24</v>
-      </c>
-    </row>
-    <row r="12" spans="1:3" x14ac:dyDescent="0.4">
+        <v>23</v>
+      </c>
+      <c r="D11" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="E11" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="F11" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="G11" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="H11" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="I11" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="J11" s="1" t="s">
+        <v>84</v>
+      </c>
+      <c r="K11" s="1" t="s">
+        <v>84</v>
+      </c>
+      <c r="L11" s="1" t="s">
+        <v>84</v>
+      </c>
+      <c r="M11" s="1" t="s">
+        <v>84</v>
+      </c>
+    </row>
+    <row r="12" spans="1:13" x14ac:dyDescent="0.4">
       <c r="A12" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="B12" s="1" t="s">
         <v>26</v>
       </c>
-      <c r="B12" s="1" t="s">
+      <c r="C12" s="1" t="s">
+        <v>65</v>
+      </c>
+      <c r="D12" s="1" t="s">
+        <v>65</v>
+      </c>
+      <c r="E12" s="1" t="s">
+        <v>65</v>
+      </c>
+      <c r="F12" s="1" t="s">
+        <v>65</v>
+      </c>
+      <c r="G12" s="1" t="s">
+        <v>65</v>
+      </c>
+      <c r="H12" s="1" t="s">
+        <v>65</v>
+      </c>
+      <c r="I12" s="1" t="s">
+        <v>65</v>
+      </c>
+      <c r="J12" s="1" t="s">
+        <v>65</v>
+      </c>
+      <c r="K12" s="1" t="s">
+        <v>65</v>
+      </c>
+      <c r="L12" s="1" t="s">
+        <v>65</v>
+      </c>
+      <c r="M12" s="1" t="s">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="13" spans="1:13" x14ac:dyDescent="0.4">
+      <c r="A13" s="2" t="s">
         <v>27</v>
       </c>
-      <c r="C12" s="1" t="s">
-        <v>49</v>
-      </c>
-    </row>
-    <row r="13" spans="1:3" x14ac:dyDescent="0.4">
-      <c r="A13" s="2" t="s">
+      <c r="B13" s="1" t="s">
         <v>28</v>
       </c>
-      <c r="B13" s="1" t="s">
-        <v>29</v>
-      </c>
       <c r="C13" s="1" t="s">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="14" spans="1:3" x14ac:dyDescent="0.4">
+        <v>28</v>
+      </c>
+      <c r="D13" s="1" t="s">
+        <v>52</v>
+      </c>
+      <c r="E13" s="1" t="s">
+        <v>61</v>
+      </c>
+      <c r="F13" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="G13" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="H13" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="I13" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="J13" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="K13" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="L13" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="M13" s="1" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="14" spans="1:13" x14ac:dyDescent="0.4">
       <c r="A14" s="5" t="s">
-        <v>40</v>
-      </c>
-      <c r="B14" s="1"/>
+        <v>39</v>
+      </c>
+      <c r="B14" s="1" t="s">
+        <v>67</v>
+      </c>
       <c r="C14" s="1" t="s">
-        <v>48</v>
-      </c>
-    </row>
-    <row r="15" spans="1:3" x14ac:dyDescent="0.4">
+        <v>2</v>
+      </c>
+      <c r="D14" s="1" t="s">
+        <v>68</v>
+      </c>
+      <c r="E14" s="1" t="s">
+        <v>69</v>
+      </c>
+      <c r="F14" s="1" t="s">
+        <v>63</v>
+      </c>
+      <c r="G14" s="1" t="s">
+        <v>71</v>
+      </c>
+      <c r="H14" s="1" t="s">
+        <v>74</v>
+      </c>
+      <c r="I14" s="1" t="s">
+        <v>79</v>
+      </c>
+      <c r="J14" s="1"/>
+      <c r="K14" s="1"/>
+      <c r="L14" s="1"/>
+      <c r="M14" s="1"/>
+    </row>
+    <row r="15" spans="1:13" x14ac:dyDescent="0.4">
       <c r="A15" s="5" t="s">
-        <v>35</v>
+        <v>62</v>
       </c>
       <c r="B15" s="1"/>
       <c r="C15" s="1"/>
+      <c r="D15" s="1"/>
+      <c r="E15" s="1"/>
+      <c r="F15" s="1" t="s">
+        <v>66</v>
+      </c>
+      <c r="G15" s="1"/>
+      <c r="H15" s="1"/>
+      <c r="I15" s="1"/>
+      <c r="J15" s="1"/>
+      <c r="K15" s="1"/>
+      <c r="L15" s="1"/>
+      <c r="M15" s="1"/>
+    </row>
+    <row r="16" spans="1:13" x14ac:dyDescent="0.4">
+      <c r="A16" s="5" t="s">
+        <v>34</v>
+      </c>
+      <c r="B16" s="1"/>
+      <c r="C16" s="1"/>
+      <c r="D16" s="1"/>
+      <c r="E16" s="1"/>
+      <c r="F16" s="1"/>
+      <c r="G16" s="1"/>
+      <c r="H16" s="1"/>
+      <c r="I16" s="1"/>
+      <c r="J16" s="1" t="s">
+        <v>81</v>
+      </c>
+      <c r="K16" s="1"/>
+      <c r="L16" s="1"/>
+      <c r="M16" s="1"/>
+    </row>
+    <row r="17" spans="1:13" x14ac:dyDescent="0.4">
+      <c r="A17" s="5" t="s">
+        <v>76</v>
+      </c>
+      <c r="B17" s="1"/>
+      <c r="C17" s="1"/>
+      <c r="D17" s="1"/>
+      <c r="E17" s="1"/>
+      <c r="F17" s="1"/>
+      <c r="G17" s="1">
+        <v>1</v>
+      </c>
+      <c r="H17" s="1">
+        <v>2</v>
+      </c>
+      <c r="I17" s="1">
+        <v>3</v>
+      </c>
+      <c r="J17" s="1"/>
+      <c r="K17" s="1"/>
+      <c r="L17" s="1"/>
+      <c r="M17" s="1"/>
+    </row>
+    <row r="18" spans="1:13" x14ac:dyDescent="0.4">
+      <c r="A18" s="5" t="s">
+        <v>80</v>
+      </c>
+      <c r="B18" s="1"/>
+      <c r="C18" s="1"/>
+      <c r="D18" s="1"/>
+      <c r="E18" s="1"/>
+      <c r="F18" s="1"/>
+      <c r="G18" s="1"/>
+      <c r="H18" s="1"/>
+      <c r="I18" s="1"/>
+      <c r="J18" s="1" t="s">
+        <v>96</v>
+      </c>
+      <c r="K18" s="1"/>
+      <c r="L18" s="1"/>
+      <c r="M18" s="1" t="s">
+        <v>96</v>
+      </c>
+    </row>
+    <row r="19" spans="1:13" x14ac:dyDescent="0.4">
+      <c r="A19" s="5" t="s">
+        <v>87</v>
+      </c>
+      <c r="B19" s="1"/>
+      <c r="C19" s="1"/>
+      <c r="D19" s="1"/>
+      <c r="E19" s="1"/>
+      <c r="F19" s="1"/>
+      <c r="G19" s="1"/>
+      <c r="H19" s="1"/>
+      <c r="I19" s="1"/>
+      <c r="J19" s="1"/>
+      <c r="K19" s="1" t="s">
+        <v>88</v>
+      </c>
+      <c r="L19" s="1" t="s">
+        <v>91</v>
+      </c>
+      <c r="M19" s="1" t="s">
+        <v>91</v>
+      </c>
+    </row>
+    <row r="20" spans="1:13" x14ac:dyDescent="0.4">
+      <c r="A20" s="5" t="s">
+        <v>89</v>
+      </c>
+      <c r="B20" s="1"/>
+      <c r="C20" s="1"/>
+      <c r="D20" s="1"/>
+      <c r="E20" s="1"/>
+      <c r="F20" s="1"/>
+      <c r="G20" s="1"/>
+      <c r="H20" s="1"/>
+      <c r="I20" s="1"/>
+      <c r="J20" s="1"/>
+      <c r="K20" s="1">
+        <v>0</v>
+      </c>
+      <c r="L20" s="1">
+        <v>0</v>
+      </c>
+      <c r="M20" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="21" spans="1:13" x14ac:dyDescent="0.4">
+      <c r="A21" s="5" t="s">
+        <v>90</v>
+      </c>
+      <c r="B21" s="1"/>
+      <c r="C21" s="1"/>
+      <c r="D21" s="1"/>
+      <c r="E21" s="1"/>
+      <c r="F21" s="1"/>
+      <c r="G21" s="1"/>
+      <c r="H21" s="1"/>
+      <c r="I21" s="1"/>
+      <c r="J21" s="1"/>
+      <c r="K21" s="1">
+        <v>100</v>
+      </c>
+      <c r="L21" s="1">
+        <v>100</v>
+      </c>
+      <c r="M21" s="1">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="22" spans="1:13" x14ac:dyDescent="0.4">
+      <c r="A22" s="6" t="s">
+        <v>70</v>
+      </c>
+      <c r="B22" s="1"/>
+      <c r="C22" s="1"/>
+      <c r="D22" s="1"/>
+      <c r="E22" s="1"/>
+      <c r="F22" s="1"/>
+      <c r="G22" s="1" t="s">
+        <v>77</v>
+      </c>
+      <c r="H22" s="1" t="s">
+        <v>77</v>
+      </c>
+      <c r="I22" s="1" t="s">
+        <v>77</v>
+      </c>
+      <c r="J22" s="1"/>
+      <c r="K22" s="1"/>
+      <c r="L22" s="1"/>
+      <c r="M22" s="1"/>
     </row>
   </sheetData>
   <phoneticPr fontId="18"/>
+  <dataValidations count="3">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="J18:M18" xr:uid="{1EF14CE6-1B78-42EF-87F7-153C6D862C5A}">
+      <formula1>"browse, single, multiple, extended"</formula1>
+    </dataValidation>
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="J16:M16" xr:uid="{646F301F-0200-49C4-8ACE-2D9461BDD262}">
+      <formula1>"flat, raised, sunken, groove, ridge, solid"</formula1>
+    </dataValidation>
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B19:M19" xr:uid="{63109200-A3E8-4523-B9E3-8F4862A8492A}">
+      <formula1>"horizontal, vertical"</formula1>
+    </dataValidation>
+  </dataValidations>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>
@@ -1379,7 +2161,7 @@
   <dimension ref="A1:H15"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="D8" sqref="D8"/>
+      <selection activeCell="A3" sqref="A3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18.75" x14ac:dyDescent="0.4"/>
@@ -1394,54 +2176,54 @@
   <sheetData>
     <row r="1" spans="1:8" x14ac:dyDescent="0.4">
       <c r="A1" s="3" t="s">
+        <v>1</v>
+      </c>
+      <c r="B1" s="3" t="s">
         <v>2</v>
       </c>
-      <c r="B1" s="3" t="s">
+      <c r="C1" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="C1" s="3" t="s">
+      <c r="D1" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="D1" s="3" t="s">
+      <c r="E1" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="E1" s="3" t="s">
-        <v>6</v>
-      </c>
       <c r="F1" s="3" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="G1" s="3" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="H1" s="3" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
     </row>
     <row r="2" spans="1:8" x14ac:dyDescent="0.4">
       <c r="A2" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="B2" s="1" t="s">
         <v>10</v>
       </c>
-      <c r="B2" s="1" t="s">
+      <c r="C2" s="1" t="s">
         <v>11</v>
       </c>
-      <c r="C2" s="1" t="s">
-        <v>12</v>
-      </c>
       <c r="D2" s="1" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="E2" s="1" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="F2" s="1" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="G2" s="1" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="H2" s="1" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
     </row>
     <row r="3" spans="1:8" x14ac:dyDescent="0.4">
@@ -1464,10 +2246,10 @@
         <v>0</v>
       </c>
       <c r="G3" s="1" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="H3" s="1" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
     </row>
     <row r="4" spans="1:8" x14ac:dyDescent="0.4">
@@ -1576,26 +2358,26 @@
     </row>
     <row r="8" spans="1:8" x14ac:dyDescent="0.4">
       <c r="A8" s="1" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="B8" s="1" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="C8" s="1"/>
       <c r="D8" s="1" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="E8" s="1" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="F8" s="1" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="G8" s="1" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="H8" s="1" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
     </row>
     <row r="9" spans="1:8" x14ac:dyDescent="0.4">
@@ -1624,100 +2406,100 @@
     </row>
     <row r="10" spans="1:8" x14ac:dyDescent="0.4">
       <c r="A10" s="1" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="B10" s="1" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="C10" s="1"/>
       <c r="D10" s="1" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="E10" s="1" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="F10" s="1" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="G10" s="1" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="H10" s="1" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
     </row>
     <row r="11" spans="1:8" x14ac:dyDescent="0.4">
       <c r="A11" s="1" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="B11" s="1" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="C11" s="1"/>
       <c r="D11" s="1" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="E11" s="1" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="F11" s="1" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="G11" s="1" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="H11" s="1" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
     </row>
     <row r="12" spans="1:8" x14ac:dyDescent="0.4">
       <c r="A12" s="1" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="B12" s="1" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="C12" s="1"/>
       <c r="D12" s="1" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="E12" s="1" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="F12" s="1" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="G12" s="1" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="H12" s="1" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
     </row>
     <row r="13" spans="1:8" x14ac:dyDescent="0.4">
       <c r="A13" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="B13" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="C13" s="1" t="s">
         <v>31</v>
       </c>
-      <c r="B13" s="1" t="s">
+      <c r="D13" s="1" t="s">
         <v>29</v>
       </c>
-      <c r="C13" s="1" t="s">
-        <v>32</v>
-      </c>
-      <c r="D13" s="1" t="s">
-        <v>30</v>
-      </c>
       <c r="E13" s="1" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="F13" s="1" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="G13" s="1" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="H13" s="1" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
     </row>
     <row r="14" spans="1:8" x14ac:dyDescent="0.4">
@@ -1728,10 +2510,10 @@
       <c r="E14" s="1"/>
       <c r="F14" s="1"/>
       <c r="G14" s="1" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="H14" s="1" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
     </row>
     <row r="15" spans="1:8" x14ac:dyDescent="0.4">
@@ -1742,10 +2524,49 @@
       <c r="E15" s="1"/>
       <c r="F15" s="1"/>
       <c r="G15" s="1" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="H15" s="1" t="s">
-        <v>39</v>
+        <v>38</v>
+      </c>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="18"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{0BC54675-D262-42E9-A8D1-A2FA4993980F}">
+  <dimension ref="A1:G1"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A2" sqref="A2"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="18.75" x14ac:dyDescent="0.4"/>
+  <sheetData>
+    <row r="1" spans="1:7" x14ac:dyDescent="0.4">
+      <c r="A1" t="s">
+        <v>34</v>
+      </c>
+      <c r="B1" t="s">
+        <v>54</v>
+      </c>
+      <c r="C1" t="s">
+        <v>55</v>
+      </c>
+      <c r="D1" t="s">
+        <v>56</v>
+      </c>
+      <c r="E1" t="s">
+        <v>38</v>
+      </c>
+      <c r="F1" t="s">
+        <v>57</v>
+      </c>
+      <c r="G1" t="s">
+        <v>58</v>
       </c>
     </row>
   </sheetData>

--- a/widget_rev2.xlsx
+++ b/widget_rev2.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26626"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27029"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/92cfbb90abbe8015/code/03_git/ttk_instant_maker/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/92cfbb90abbe8015/Programs/04_tool/ttk_instant_maker/"/>
     </mc:Choice>
   </mc:AlternateContent>
   <xr:revisionPtr revIDLastSave="94" documentId="13_ncr:1_{31F62CDF-D643-4E42-8CCE-9C484B1843E6}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{E8B40517-57BF-44CE-ACEF-6E9957B2CA17}"/>
   <bookViews>
-    <workbookView xWindow="-28920" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="widget" sheetId="1" r:id="rId1"/>
@@ -1392,11 +1392,11 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:M22"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <pane xSplit="1" ySplit="2" topLeftCell="I3" activePane="bottomRight" state="frozen"/>
+    <sheetView workbookViewId="0">
+      <pane xSplit="1" ySplit="2" topLeftCell="B3" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="B1" sqref="B1"/>
       <selection pane="bottomLeft" activeCell="A3" sqref="A3"/>
-      <selection pane="bottomRight" activeCell="J18" sqref="J18"/>
+      <selection pane="bottomRight" activeCell="I22" sqref="I22"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18.75" x14ac:dyDescent="0.4"/>
@@ -2160,7 +2160,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{DDC137D4-D074-4A1E-833B-A54C33769209}">
   <dimension ref="A1:H15"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
+    <sheetView tabSelected="1" workbookViewId="0">
       <selection activeCell="A3" sqref="A3"/>
     </sheetView>
   </sheetViews>
